--- a/data/dashboard/nn3nn7/topics_groups.xlsx
+++ b/data/dashboard/nn3nn7/topics_groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>group_id</t>
   </si>
@@ -30,40 +30,34 @@
     <t>narrative</t>
   </si>
   <si>
-    <t>The Arts</t>
+    <t>Arts</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Cultural Engagement</t>
+    <t>Heritage</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Productivity</t>
+    <t>Economy</t>
   </si>
   <si>
     <t>Employment</t>
   </si>
   <si>
-    <t>Public Safety</t>
+    <t>Crime</t>
   </si>
   <si>
-    <t>Family &amp; Identity</t>
+    <t>Family</t>
   </si>
   <si>
-    <t>Peace &amp; Justice</t>
+    <t>Governance</t>
   </si>
   <si>
-    <t>Health &amp; Wellbeing</t>
+    <t>Health</t>
   </si>
   <si>
-    <t>Sustainable Planet</t>
-  </si>
-  <si>
-    <t>Bric-a-Brac</t>
+    <t>Environment</t>
   </si>
 </sst>
 </file>
@@ -87,9 +81,9 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,19 +100,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,133 +344,107 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
